--- a/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/brimunobiogico-sct_eng-Jussara.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/brimunobiogico-sct_eng-Jussara.xlsx
@@ -1,34 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Imunizacao/CargaOCL_Imunizacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46BE6ADB-5BB5-A04E-947A-EF552AED3B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCFC0F0-C164-764A-9F77-8F7E701C80E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18160" yWindow="7400" windowWidth="18160" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="Revisão Jussara" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mapping!$K$1:$O$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="264">
   <si>
     <t>Nome Organização Source</t>
   </si>
@@ -814,20 +826,6 @@
     </r>
   </si>
   <si>
-    <t>Vaccine product containing only influenza A virus subtypes H1N1 and H3N2 and influenza B virus Victoria and Yamagata lineage antigens (medicinal product)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCTID 2261000221104 </t>
-  </si>
-  <si>
-    <t>Quadrivalente:As vacinas quadrivalentes, licenciadas desde 2015, incluem uma segunda
-cepa B, contendo as duas linhagens: Victoria e Yamagata. Da mesma forma
-que a trivalente, são inativadas e não possuem adjuvantes.
-Em 2023 uma nova vacina quadrivalente está disponível. As informações
-pertinentes a esta nova vacina estarão descritas adiante, no item vacina
-Influenza de alta concentração – HD4V. 2023.  Um vírus similar ao vírus Influenza A/Sydney/5/2021 (H1N1)pdm09;  Um vírus similar ao vírus Influenza A/Darwin/9/2021 (H3N2);  Um vírus similar ao vírus Influenza B/Áustria/1359417/2021 (linhagem B/Victoria).  Um vírus similar ao Influenza B/Phuket/3073/2013 (linhagem B/Yamagata).</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCTID 971000221109 </t>
   </si>
   <si>
@@ -879,7 +877,13 @@
     <t>4 - O conceito fonte é mais restrito e tem mais significado específico que o conceito/termo alvo. 2 - Equivalência de significado, mas com sinonímia.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adult vaccine product containing only Hepatitis A virus antigen (medicinal product)|</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Okk</t>
+  </si>
+  <si>
+    <t>SCTID: 412175006</t>
   </si>
   <si>
     <r>
@@ -898,17 +902,23 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. 1 - Equivalência de significado, léxica e também conceitual.</t>
+      <t xml:space="preserve">. </t>
     </r>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Okk</t>
-  </si>
-  <si>
-    <t>SCTID: 412175006</t>
+    <t>Revisão Dra Jussara para aprovação</t>
+  </si>
+  <si>
+    <t>Código SNOMED IPS</t>
+  </si>
+  <si>
+    <t>Descrição IPS</t>
+  </si>
+  <si>
+    <t>Comentário</t>
+  </si>
+  <si>
+    <t>Proposta PNI</t>
   </si>
 </sst>
 </file>
@@ -1045,12 +1055,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1061,8 +1065,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1157,12 +1167,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1235,19 +1256,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,9 +1312,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,7 +1329,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1322,9 +1342,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1347,10 +1364,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1358,11 +1375,53 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1676,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1046725"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I72" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1751,7 @@
     <col min="8" max="8" width="33" style="15" customWidth="1"/>
     <col min="9" max="9" width="26" style="15" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" style="15" customWidth="1"/>
-    <col min="11" max="12" width="32.1640625" style="52" customWidth="1"/>
+    <col min="11" max="12" width="32.1640625" style="51" customWidth="1"/>
     <col min="13" max="13" width="22.83203125" style="32" customWidth="1"/>
     <col min="14" max="15" width="11" style="32"/>
     <col min="16" max="16384" width="11" style="15"/>
@@ -1717,19 +1776,19 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="L1" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>242</v>
       </c>
     </row>
@@ -1752,8 +1811,8 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="55"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="54"/>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1786,8 +1845,8 @@
       <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="55"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1818,8 +1877,8 @@
       <c r="J4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="55"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1852,8 +1911,8 @@
       <c r="J5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="55"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1886,51 +1945,50 @@
       <c r="J6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="55"/>
-    </row>
-    <row r="7" spans="1:15" s="46" customFormat="1" ht="120" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="K6" s="48"/>
+      <c r="L6" s="54"/>
+    </row>
+    <row r="7" spans="1:15" s="74" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+      <c r="A7" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="70">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="N7" s="49" t="s">
+      <c r="M7" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="N7" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="O7" s="75" t="s">
         <v>243</v>
       </c>
     </row>
@@ -1965,8 +2023,8 @@
       <c r="J8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="55"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
@@ -1999,8 +2057,8 @@
       <c r="J9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="55"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -2027,8 +2085,8 @@
       <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="49"/>
-      <c r="L10" s="55"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
@@ -2061,8 +2119,8 @@
       <c r="J11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="55"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
@@ -2093,8 +2151,8 @@
       <c r="J12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="49"/>
-      <c r="L12" s="55"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -2127,10 +2185,10 @@
       <c r="J13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="L13" s="55" t="s">
+      <c r="L13" s="54" t="s">
         <v>72</v>
       </c>
       <c r="O13" s="32" t="s">
@@ -2168,12 +2226,12 @@
       <c r="J14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
     </row>
     <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
@@ -2200,12 +2258,12 @@
       <c r="J15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="55"/>
+      <c r="L15" s="54"/>
       <c r="O15" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.2">
@@ -2239,17 +2297,17 @@
       <c r="J16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="54" t="s">
         <v>240</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>5</v>
       </c>
@@ -2280,11 +2338,11 @@
       <c r="J17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="49"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
     </row>
     <row r="18" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -2317,8 +2375,8 @@
       <c r="J18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K18" s="50"/>
-      <c r="L18" s="56"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -2351,9 +2409,9 @@
       <c r="J19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="64">
+      <c r="K19" s="48"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="62">
         <v>871739009</v>
       </c>
     </row>
@@ -2388,10 +2446,10 @@
       <c r="J20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="K20" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="L20" s="55" t="s">
+      <c r="L20" s="54" t="s">
         <v>80</v>
       </c>
       <c r="O20" s="32" t="s">
@@ -2429,15 +2487,15 @@
       <c r="J21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="L21" s="55" t="s">
+      <c r="L21" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="M21" s="49"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
     </row>
     <row r="22" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -2467,16 +2525,16 @@
       <c r="I22" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="J22" s="62" t="s">
+      <c r="J22" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K22" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="L22" s="55"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
     </row>
     <row r="23" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -2509,10 +2567,10 @@
       <c r="J23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="K23" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="54" t="s">
         <v>93</v>
       </c>
       <c r="M23" s="39"/>
@@ -2551,8 +2609,8 @@
       <c r="J24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="55"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="54"/>
     </row>
     <row r="25" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
@@ -2569,7 +2627,7 @@
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="63" t="s">
+      <c r="G25" s="61" t="s">
         <v>99</v>
       </c>
       <c r="H25" s="40" t="s">
@@ -2581,14 +2639,14 @@
       <c r="J25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="49" t="s">
+      <c r="K25" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="L25" s="55" t="s">
+      <c r="L25" s="54" t="s">
         <v>102</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="45" x14ac:dyDescent="0.2">
@@ -2622,10 +2680,10 @@
       <c r="J26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="L26" s="55" t="s">
+      <c r="L26" s="54" t="s">
         <v>230</v>
       </c>
       <c r="O26" s="32" t="s">
@@ -2663,8 +2721,8 @@
       <c r="J27" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="49"/>
-      <c r="L27" s="55"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="54"/>
     </row>
     <row r="28" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
@@ -2697,8 +2755,8 @@
       <c r="J28" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="49"/>
-      <c r="L28" s="55"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -2731,8 +2789,8 @@
       <c r="J29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="55"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -2763,8 +2821,8 @@
       <c r="J30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="55"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -2797,10 +2855,10 @@
       <c r="J31" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="49" t="s">
+      <c r="K31" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="L31" s="55" t="s">
+      <c r="L31" s="54" t="s">
         <v>121</v>
       </c>
       <c r="O31" s="32" t="s">
@@ -2838,8 +2896,8 @@
       <c r="J32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="55"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -2872,8 +2930,8 @@
       <c r="J33" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="55"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -2906,8 +2964,8 @@
       <c r="J34" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="55"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="54"/>
     </row>
     <row r="35" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -2934,60 +2992,61 @@
       <c r="H35" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="I35" s="65" t="s">
-        <v>254</v>
+      <c r="I35" s="63" t="s">
+        <v>251</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-    </row>
-    <row r="36" spans="1:15" ht="210" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="26">
+      <c r="K35" s="48"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+    </row>
+    <row r="36" spans="1:15" s="74" customFormat="1" ht="210" x14ac:dyDescent="0.2">
+      <c r="A36" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="70">
         <v>51</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="10" t="s">
+      <c r="D36" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="K36" s="49" t="s">
+      <c r="K36" s="73" t="s">
         <v>236</v>
       </c>
-      <c r="L36" s="55" t="s">
+      <c r="L36" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="M36" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="N36" s="55" t="s">
-        <v>251</v>
-      </c>
+      <c r="M36" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="N36" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="O36" s="77"/>
     </row>
     <row r="37" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
@@ -3015,15 +3074,15 @@
         <v>96</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="J37" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="49"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
     </row>
     <row r="38" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
@@ -3051,19 +3110,19 @@
         <v>140</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J38" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="49" t="s">
+      <c r="K38" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="L38" s="55" t="s">
+      <c r="L38" s="54" t="s">
         <v>228</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.2">
@@ -3097,10 +3156,10 @@
       <c r="J39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K39" s="49"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
     </row>
     <row r="40" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
@@ -3133,8 +3192,8 @@
       <c r="J40" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="49"/>
-      <c r="N40" s="55"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="54"/>
     </row>
     <row r="41" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
@@ -3167,8 +3226,8 @@
       <c r="J41" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="49"/>
-      <c r="L41" s="55"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="54"/>
     </row>
     <row r="42" spans="1:15" ht="75" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -3195,19 +3254,19 @@
       <c r="H42" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="65" t="s">
-        <v>257</v>
+      <c r="I42" s="63" t="s">
+        <v>254</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K42" s="49" t="s">
+      <c r="K42" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="L42" s="55" t="s">
+      <c r="L42" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="N42" s="55" t="s">
+      <c r="N42" s="54" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3242,13 +3301,13 @@
       <c r="J43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="49" t="s">
+      <c r="K43" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="L43" s="55" t="s">
+      <c r="L43" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="N43" s="55" t="s">
+      <c r="N43" s="54" t="s">
         <v>244</v>
       </c>
     </row>
@@ -3283,9 +3342,9 @@
       <c r="J44" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K44" s="49"/>
-      <c r="L44" s="55"/>
-      <c r="O44" s="55"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="54"/>
+      <c r="O44" s="54"/>
     </row>
     <row r="45" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
@@ -3318,8 +3377,8 @@
       <c r="J45" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K45" s="49"/>
-      <c r="L45" s="55"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="54"/>
     </row>
     <row r="46" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
@@ -3352,12 +3411,12 @@
       <c r="J46" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K46" s="49" t="s">
+      <c r="K46" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="L46" s="55"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="55"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="54"/>
       <c r="O46" s="12"/>
     </row>
     <row r="47" spans="1:15" ht="45" x14ac:dyDescent="0.2">
@@ -3391,8 +3450,8 @@
       <c r="J47" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K47" s="49"/>
-      <c r="L47" s="55"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="54"/>
     </row>
     <row r="48" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
@@ -3425,8 +3484,8 @@
       <c r="J48" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K48" s="49"/>
-      <c r="L48" s="55"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="54"/>
     </row>
     <row r="49" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
@@ -3459,10 +3518,10 @@
       <c r="J49" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K49" s="49" t="s">
+      <c r="K49" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="L49" s="55" t="s">
+      <c r="L49" s="54" t="s">
         <v>218</v>
       </c>
       <c r="O49" s="32" t="s">
@@ -3500,10 +3559,10 @@
       <c r="J50" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K50" s="49" t="s">
+      <c r="K50" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="L50" s="55" t="s">
+      <c r="L50" s="54" t="s">
         <v>219</v>
       </c>
       <c r="O50" s="32" t="s">
@@ -3511,19 +3570,19 @@
       </c>
     </row>
     <row r="51" spans="1:15" ht="45" x14ac:dyDescent="0.2">
-      <c r="A51" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="68">
+      <c r="A51" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="66">
         <v>70</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="D51" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E51" s="70" t="s">
+      <c r="D51" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="68" t="s">
         <v>19</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -3541,15 +3600,15 @@
       <c r="J51" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K51" s="49"/>
-      <c r="L51" s="55"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="54"/>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
-      <c r="B52" s="69"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="71"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="8" t="s">
         <v>7</v>
       </c>
@@ -3565,8 +3624,8 @@
       <c r="J52" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K52" s="49"/>
-      <c r="L52" s="55"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="54"/>
     </row>
     <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
@@ -3599,8 +3658,8 @@
       <c r="J53" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K53" s="49"/>
-      <c r="L53" s="55"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="54"/>
     </row>
     <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
@@ -3633,8 +3692,8 @@
       <c r="J54" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K54" s="49"/>
-      <c r="L54" s="55"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="54"/>
     </row>
     <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
@@ -3667,10 +3726,10 @@
       <c r="J55" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K55" s="49" t="s">
+      <c r="K55" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="L55" s="55" t="s">
+      <c r="L55" s="54" t="s">
         <v>228</v>
       </c>
       <c r="O55" s="12" t="s">
@@ -3708,8 +3767,8 @@
       <c r="J56" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="49"/>
-      <c r="L56" s="55"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="54"/>
     </row>
     <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
@@ -3742,10 +3801,10 @@
       <c r="J57" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K57" s="49" t="s">
+      <c r="K57" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="L57" s="55" t="s">
+      <c r="L57" s="54" t="s">
         <v>231</v>
       </c>
       <c r="O57" s="32" t="s">
@@ -3765,7 +3824,7 @@
       <c r="G58" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="H58" s="53" t="s">
+      <c r="H58" s="52" t="s">
         <v>184</v>
       </c>
       <c r="I58" s="8" t="s">
@@ -3774,10 +3833,10 @@
       <c r="J58" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K58" s="49" t="s">
+      <c r="K58" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="L58" s="55" t="s">
+      <c r="L58" s="54" t="s">
         <v>93</v>
       </c>
       <c r="M58" s="39"/>
@@ -3785,7 +3844,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>5</v>
       </c>
@@ -3816,19 +3875,13 @@
       <c r="J59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K59" s="49" t="s">
+      <c r="K59" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="L59" s="55"/>
-      <c r="M59" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="N59" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="O59" s="49" t="s">
-        <v>249</v>
-      </c>
+      <c r="L59" s="54"/>
+      <c r="M59" s="48"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="48"/>
     </row>
     <row r="60" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
@@ -3861,8 +3914,8 @@
       <c r="J60" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K60" s="49"/>
-      <c r="L60" s="55"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="54"/>
     </row>
     <row r="61" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
@@ -3895,10 +3948,10 @@
       <c r="J61" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K61" s="49"/>
-      <c r="L61" s="55"/>
-    </row>
-    <row r="62" spans="1:15" ht="105" x14ac:dyDescent="0.2">
+      <c r="K61" s="48"/>
+      <c r="L61" s="54"/>
+    </row>
+    <row r="62" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>5</v>
       </c>
@@ -3924,18 +3977,18 @@
         <v>96</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K62" s="49"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55">
-        <v>865997008</v>
-      </c>
-      <c r="N62" s="55" t="s">
-        <v>258</v>
+      <c r="K62" s="48"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="N62" s="54" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="45" x14ac:dyDescent="0.2">
@@ -3969,8 +4022,8 @@
       <c r="J63" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K63" s="49"/>
-      <c r="L63" s="55"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="54"/>
     </row>
     <row r="64" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
@@ -4003,8 +4056,8 @@
       <c r="J64" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K64" s="49"/>
-      <c r="L64" s="55"/>
+      <c r="K64" s="48"/>
+      <c r="L64" s="54"/>
     </row>
     <row r="65" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
@@ -4037,8 +4090,8 @@
       <c r="J65" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K65" s="49"/>
-      <c r="L65" s="55"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="54"/>
     </row>
     <row r="66" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
@@ -4071,8 +4124,8 @@
       <c r="J66" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="49"/>
-      <c r="L66" s="55"/>
+      <c r="K66" s="48"/>
+      <c r="L66" s="54"/>
     </row>
     <row r="67" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
@@ -4105,8 +4158,8 @@
       <c r="J67" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="49"/>
-      <c r="L67" s="55"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="54"/>
     </row>
     <row r="68" spans="1:15" ht="60" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
@@ -4139,8 +4192,8 @@
       <c r="J68" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K68" s="49"/>
-      <c r="L68" s="55"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="54"/>
     </row>
     <row r="69" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
@@ -4173,14 +4226,14 @@
       <c r="J69" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="K69" s="49" t="s">
+      <c r="K69" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="L69" s="55" t="s">
+      <c r="L69" s="54" t="s">
         <v>230</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.2">
@@ -4214,14 +4267,14 @@
       <c r="J70" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K70" s="50" t="s">
+      <c r="K70" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="L70" s="57" t="s">
+      <c r="L70" s="56" t="s">
         <v>221</v>
       </c>
       <c r="O70" s="32" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="60" x14ac:dyDescent="0.2">
@@ -4255,8 +4308,8 @@
       <c r="J71" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K71" s="51"/>
-      <c r="L71" s="58"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="57"/>
     </row>
     <row r="72" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
@@ -4289,8 +4342,8 @@
       <c r="J72" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K72" s="51"/>
-      <c r="L72" s="58"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="57"/>
     </row>
     <row r="73" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
@@ -4323,8 +4376,8 @@
       <c r="J73" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K73" s="51"/>
-      <c r="L73" s="58"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="57"/>
     </row>
     <row r="74" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
@@ -4357,8 +4410,8 @@
       <c r="J74" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K74" s="51"/>
-      <c r="L74" s="58"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="57"/>
     </row>
     <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
@@ -4391,8 +4444,8 @@
       <c r="J75" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K75" s="51"/>
-      <c r="L75" s="58"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="57"/>
     </row>
     <row r="76" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
@@ -4425,8 +4478,8 @@
       <c r="J76" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K76" s="51"/>
-      <c r="L76" s="58"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="57"/>
     </row>
     <row r="77" spans="1:15" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
@@ -4459,8 +4512,8 @@
       <c r="J77" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K77" s="51"/>
-      <c r="L77" s="58"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="57"/>
     </row>
     <row r="78" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
@@ -4493,10 +4546,10 @@
       <c r="J78" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K78" s="50"/>
-      <c r="L78" s="56"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="55"/>
       <c r="O78" s="32" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4529,7 +4582,198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C3528D-B960-4D4A-9BEB-246D8244E105}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" s="85"/>
+      <c r="M1" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+    </row>
+    <row r="2" spans="1:15" ht="75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="74" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="78">
+        <v>10</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="81" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="O3" s="82" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="74" customFormat="1" ht="210" x14ac:dyDescent="0.2">
+      <c r="A4" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="70">
+        <v>51</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>247</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="O4" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{13256B8A-FB89-5040-A883-763E8C03C945}">
+      <formula1>"1..1,1..*,*..1,*..*,-,"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D90902548CB2D40ABBBDE5E1E357B6C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f51981311557442a3ad7211823fb57b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b0ada803-87a5-4f80-bf3c-49fd012dc2db" xmlns:ns4="8c04557f-fd53-4c74-80a8-0d8bfa82ceea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1460c24319f412d37eca41066125202d" ns3:_="" ns4:_="">
     <xsd:import namespace="b0ada803-87a5-4f80-bf3c-49fd012dc2db"/>
@@ -4744,22 +4988,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2473D3FE-6936-4D3A-85B9-D91536E4F0AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b0ada803-87a5-4f80-bf3c-49fd012dc2db"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8c04557f-fd53-4c74-80a8-0d8bfa82ceea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B595ECDB-A699-4CE2-BEFD-D76F82876E3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3DDE2E8-1E16-41BF-8832-90ABBD4BC4DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4776,29 +5030,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B595ECDB-A699-4CE2-BEFD-D76F82876E3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2473D3FE-6936-4D3A-85B9-D91536E4F0AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b0ada803-87a5-4f80-bf3c-49fd012dc2db"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8c04557f-fd53-4c74-80a8-0d8bfa82ceea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>